--- a/Documentación/3. SCRUM.xlsx
+++ b/Documentación/3. SCRUM.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gambito\Desktop\Universidad\Ingenieria de software ll\World Eats\Documentación\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gambito\Desktop\Universidad\Ingenieria de software ll\WorldEats\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="189">
   <si>
     <t>Yo como</t>
   </si>
@@ -1218,6 +1218,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1266,24 +1279,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1362,7 +1383,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1403,7 +1423,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Burndown!$D$43:$D$44</c:f>
+              <c:f>Burndown!$D$42:$D$43</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1429,7 +1449,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Burndown!$C$45:$C$80</c:f>
+              <c:f>Burndown!$C$44:$C$79</c:f>
               <c:numCache>
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="36"/>
@@ -1546,7 +1566,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$D$45:$D$80</c:f>
+              <c:f>Burndown!$D$44:$D$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="36"/>
@@ -1586,7 +1606,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Burndown!$E$43:$E$44</c:f>
+              <c:f>Burndown!$E$42:$E$43</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -1612,7 +1632,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Burndown!$C$45:$C$80</c:f>
+              <c:f>Burndown!$C$44:$C$79</c:f>
               <c:numCache>
                 <c:formatCode>[$-F800]dddd\,\ mmmm\ dd\,\ yyyy</c:formatCode>
                 <c:ptCount val="36"/>
@@ -1729,7 +1749,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Burndown!$E$45:$E$80</c:f>
+              <c:f>Burndown!$E$44:$E$79</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="36"/>
@@ -1860,11 +1880,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2598128"/>
-        <c:axId val="-2589968"/>
+        <c:axId val="-1236587696"/>
+        <c:axId val="-1236593680"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-2598128"/>
+        <c:axId val="-1236587696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1907,14 +1927,14 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2589968"/>
+        <c:crossAx val="-1236593680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-2589968"/>
+        <c:axId val="-1236593680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1965,7 +1985,7 @@
             <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2598128"/>
+        <c:crossAx val="-1236587696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1979,7 +1999,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2612,13 +2631,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>10581</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>14817</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>624416</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2959,24 +2978,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="61"/>
+      <c r="D1" s="68"/>
       <c r="E1" s="38" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="63"/>
+      <c r="D2" s="70"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -3486,8 +3505,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="B12" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3509,7 +3528,7 @@
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="73" t="s">
         <v>57</v>
       </c>
       <c r="E3" s="16" t="s">
@@ -3520,7 +3539,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="67"/>
+      <c r="C4" s="74"/>
       <c r="E4" s="16" t="s">
         <v>149</v>
       </c>
@@ -3529,7 +3548,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="68"/>
+      <c r="C5" s="75"/>
       <c r="E5" s="17" t="s">
         <v>150</v>
       </c>
@@ -3660,7 +3679,7 @@
         <v>124</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F11" s="21">
         <v>4</v>
@@ -3744,7 +3763,7 @@
         <v>127</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F14" s="21">
         <v>2</v>
@@ -3828,7 +3847,7 @@
         <v>130</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F17" s="21">
         <v>2</v>
@@ -3856,7 +3875,7 @@
         <v>184</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F18" s="21">
         <v>1</v>
@@ -3884,7 +3903,7 @@
         <v>131</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F19" s="21">
         <v>1</v>
@@ -3912,7 +3931,7 @@
         <v>132</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F20" s="21">
         <v>2</v>
@@ -4373,10 +4392,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N80"/>
+  <dimension ref="B1:N79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4398,7 +4417,7 @@
       </c>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="76" t="s">
         <v>175</v>
       </c>
       <c r="E3" s="35" t="s">
@@ -4406,13 +4425,13 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C4" s="70"/>
+      <c r="C4" s="77"/>
       <c r="E4" s="35" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="71"/>
+      <c r="C5" s="78"/>
       <c r="E5" s="36" t="s">
         <v>171</v>
       </c>
@@ -4494,34 +4513,34 @@
       <c r="B9" s="29">
         <v>2</v>
       </c>
-      <c r="C9" s="76" t="str">
+      <c r="C9" s="60" t="str">
         <f>'Sprint Backlog'!D9</f>
         <v>Registro Oferente</v>
       </c>
-      <c r="D9" s="77">
+      <c r="D9" s="61">
         <f>'Sprint Backlog'!F9</f>
         <v>2</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="62" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="G9" s="80">
-        <f t="shared" ref="G9:G35" si="0">D9*4</f>
+      <c r="G9" s="64">
+        <f t="shared" ref="G9:G34" si="0">D9*4</f>
         <v>8</v>
       </c>
-      <c r="H9" s="81">
+      <c r="H9" s="65">
         <f>'Sprint Backlog'!G9</f>
         <v>2</v>
       </c>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
-      <c r="M9" s="80"/>
-      <c r="N9" s="77" t="s">
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="61" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4572,7 +4591,7 @@
       <c r="E11" s="26"/>
       <c r="F11" s="39" t="str">
         <f>'Sprint Backlog'!E11</f>
-        <v>En progreso</v>
+        <v>Finalizado</v>
       </c>
       <c r="G11" s="25">
         <f t="shared" si="0"/>
@@ -4587,7 +4606,9 @@
       <c r="K11" s="25"/>
       <c r="L11" s="25"/>
       <c r="M11" s="25"/>
-      <c r="N11" s="27"/>
+      <c r="N11" s="27" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="12" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B12" s="29">
@@ -4668,7 +4689,7 @@
       <c r="E14" s="26"/>
       <c r="F14" s="39" t="str">
         <f>'Sprint Backlog'!E14</f>
-        <v>Sin iniciar</v>
+        <v>Finalizado</v>
       </c>
       <c r="G14" s="25">
         <f t="shared" si="0"/>
@@ -4683,7 +4704,9 @@
       <c r="K14" s="25"/>
       <c r="L14" s="25"/>
       <c r="M14" s="25"/>
-      <c r="N14" s="27"/>
+      <c r="N14" s="27" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="15" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B15" s="29">
@@ -4763,7 +4786,7 @@
       <c r="E17" s="26"/>
       <c r="F17" s="39" t="str">
         <f>'Sprint Backlog'!E17</f>
-        <v>Sin iniciar</v>
+        <v>Finalizado</v>
       </c>
       <c r="G17" s="25">
         <f t="shared" si="0"/>
@@ -4797,7 +4820,7 @@
       </c>
       <c r="F18" s="39" t="str">
         <f>'Sprint Backlog'!E18</f>
-        <v>En progreso</v>
+        <v>Finalizado</v>
       </c>
       <c r="G18" s="25">
         <f t="shared" si="0"/>
@@ -4837,7 +4860,7 @@
       <c r="E19" s="26"/>
       <c r="F19" s="39" t="str">
         <f>'Sprint Backlog'!E19</f>
-        <v>Sin iniciar</v>
+        <v>Finalizado</v>
       </c>
       <c r="G19" s="25">
         <f t="shared" si="0"/>
@@ -4871,7 +4894,7 @@
       </c>
       <c r="F20" s="39" t="str">
         <f>'Sprint Backlog'!E20</f>
-        <v>En progreso</v>
+        <v>Finalizado</v>
       </c>
       <c r="G20" s="25">
         <f t="shared" si="0"/>
@@ -5006,53 +5029,63 @@
     </row>
     <row r="24" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B24" s="29">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="28" t="str">
-        <f>'Sprint Backlog'!D24</f>
+        <f>'Sprint Backlog'!D25</f>
         <v>Ver producto</v>
       </c>
       <c r="D24" s="27">
-        <f>'Sprint Backlog'!F24</f>
+        <f>'Sprint Backlog'!F25</f>
         <v>2</v>
       </c>
-      <c r="E24" s="26"/>
+      <c r="E24" s="26" t="s">
+        <v>170</v>
+      </c>
       <c r="F24" s="39" t="str">
-        <f>'Sprint Backlog'!E24</f>
-        <v>Sin iniciar</v>
+        <f>'Sprint Backlog'!E25</f>
+        <v>Finalizado</v>
       </c>
       <c r="G24" s="25">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="H24" s="33">
-        <f>'Sprint Backlog'!G24</f>
+        <f>'Sprint Backlog'!G25</f>
         <v>1</v>
       </c>
       <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="25"/>
+      <c r="J24" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" s="25">
+        <v>8</v>
+      </c>
       <c r="M24" s="25"/>
-      <c r="N24" s="27"/>
+      <c r="N24" s="27" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="25" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B25" s="29">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="28" t="str">
-        <f>'Sprint Backlog'!D25</f>
-        <v>Ver producto</v>
+        <f>'Sprint Backlog'!D26</f>
+        <v>Agregar producto</v>
       </c>
       <c r="D25" s="27">
-        <f>'Sprint Backlog'!F25</f>
+        <f>'Sprint Backlog'!F26</f>
         <v>2</v>
       </c>
       <c r="E25" s="26" t="s">
         <v>170</v>
       </c>
       <c r="F25" s="39" t="str">
-        <f>'Sprint Backlog'!E25</f>
+        <f>'Sprint Backlog'!E26</f>
         <v>Finalizado</v>
       </c>
       <c r="G25" s="25">
@@ -5060,10 +5093,12 @@
         <v>8</v>
       </c>
       <c r="H25" s="33">
-        <f>'Sprint Backlog'!G25</f>
+        <f>'Sprint Backlog'!G26</f>
         <v>1</v>
       </c>
-      <c r="I25" s="25"/>
+      <c r="I25" s="25">
+        <v>4</v>
+      </c>
       <c r="J25" s="25" t="s">
         <v>186</v>
       </c>
@@ -5071,7 +5106,7 @@
         <v>187</v>
       </c>
       <c r="L25" s="25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M25" s="25"/>
       <c r="N25" s="27" t="s">
@@ -5080,63 +5115,51 @@
     </row>
     <row r="26" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B26" s="29">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="28" t="str">
-        <f>'Sprint Backlog'!D26</f>
-        <v>Agregar producto</v>
+        <f>'Sprint Backlog'!D27</f>
+        <v>Descartar producto</v>
       </c>
       <c r="D26" s="27">
-        <f>'Sprint Backlog'!F26</f>
-        <v>2</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>170</v>
-      </c>
+        <f>'Sprint Backlog'!F27</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="26"/>
       <c r="F26" s="39" t="str">
-        <f>'Sprint Backlog'!E26</f>
-        <v>Finalizado</v>
+        <f>'Sprint Backlog'!E27</f>
+        <v>Sin iniciar</v>
       </c>
       <c r="G26" s="25">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H26" s="33">
-        <f>'Sprint Backlog'!G26</f>
-        <v>1</v>
-      </c>
-      <c r="I26" s="25">
-        <v>4</v>
-      </c>
-      <c r="J26" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="K26" s="25" t="s">
-        <v>187</v>
-      </c>
-      <c r="L26" s="25">
-        <v>4</v>
-      </c>
+        <f>'Sprint Backlog'!G27</f>
+        <v>3</v>
+      </c>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="25"/>
       <c r="M26" s="25"/>
-      <c r="N26" s="27" t="s">
-        <v>173</v>
-      </c>
+      <c r="N26" s="27"/>
     </row>
     <row r="27" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B27" s="29">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C27" s="28" t="str">
-        <f>'Sprint Backlog'!D27</f>
-        <v>Descartar producto</v>
+        <f>'Sprint Backlog'!D28</f>
+        <v>Confirmar pedido</v>
       </c>
       <c r="D27" s="27">
-        <f>'Sprint Backlog'!F27</f>
+        <f>'Sprint Backlog'!F28</f>
         <v>1</v>
       </c>
       <c r="E27" s="26"/>
       <c r="F27" s="39" t="str">
-        <f>'Sprint Backlog'!E27</f>
+        <f>'Sprint Backlog'!E28</f>
         <v>Sin iniciar</v>
       </c>
       <c r="G27" s="25">
@@ -5144,8 +5167,8 @@
         <v>4</v>
       </c>
       <c r="H27" s="33">
-        <f>'Sprint Backlog'!G27</f>
-        <v>3</v>
+        <f>'Sprint Backlog'!G28</f>
+        <v>5</v>
       </c>
       <c r="I27" s="25"/>
       <c r="J27" s="25"/>
@@ -5156,19 +5179,19 @@
     </row>
     <row r="28" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B28" s="29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C28" s="28" t="str">
-        <f>'Sprint Backlog'!D28</f>
-        <v>Confirmar pedido</v>
+        <f>'Sprint Backlog'!D29</f>
+        <v>Rastreo pedidos</v>
       </c>
       <c r="D28" s="27">
-        <f>'Sprint Backlog'!F28</f>
+        <f>'Sprint Backlog'!F29</f>
         <v>1</v>
       </c>
       <c r="E28" s="26"/>
       <c r="F28" s="39" t="str">
-        <f>'Sprint Backlog'!E28</f>
+        <f>'Sprint Backlog'!E29</f>
         <v>Sin iniciar</v>
       </c>
       <c r="G28" s="25">
@@ -5176,7 +5199,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="33">
-        <f>'Sprint Backlog'!G28</f>
+        <f>'Sprint Backlog'!G29</f>
         <v>5</v>
       </c>
       <c r="I28" s="25"/>
@@ -5188,19 +5211,19 @@
     </row>
     <row r="29" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B29" s="29">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C29" s="28" t="str">
-        <f>'Sprint Backlog'!D29</f>
-        <v>Rastreo pedidos</v>
+        <f>'Sprint Backlog'!D30</f>
+        <v>Ayuda</v>
       </c>
       <c r="D29" s="27">
-        <f>'Sprint Backlog'!F29</f>
+        <f>'Sprint Backlog'!F30</f>
         <v>1</v>
       </c>
       <c r="E29" s="26"/>
       <c r="F29" s="39" t="str">
-        <f>'Sprint Backlog'!E29</f>
+        <f>'Sprint Backlog'!E30</f>
         <v>Sin iniciar</v>
       </c>
       <c r="G29" s="25">
@@ -5208,8 +5231,8 @@
         <v>4</v>
       </c>
       <c r="H29" s="33">
-        <f>'Sprint Backlog'!G29</f>
-        <v>5</v>
+        <f>'Sprint Backlog'!G30</f>
+        <v>4</v>
       </c>
       <c r="I29" s="25"/>
       <c r="J29" s="25"/>
@@ -5220,19 +5243,19 @@
     </row>
     <row r="30" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B30" s="29">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" s="28" t="str">
-        <f>'Sprint Backlog'!D30</f>
-        <v>Ayuda</v>
+        <f>'Sprint Backlog'!D31</f>
+        <v>Calificaciones</v>
       </c>
       <c r="D30" s="27">
-        <f>'Sprint Backlog'!F30</f>
+        <f>'Sprint Backlog'!F31</f>
         <v>1</v>
       </c>
-      <c r="E30" s="26"/>
+      <c r="E30" s="66"/>
       <c r="F30" s="39" t="str">
-        <f>'Sprint Backlog'!E30</f>
+        <f>'Sprint Backlog'!E31</f>
         <v>Sin iniciar</v>
       </c>
       <c r="G30" s="25">
@@ -5240,7 +5263,7 @@
         <v>4</v>
       </c>
       <c r="H30" s="33">
-        <f>'Sprint Backlog'!G30</f>
+        <f>'Sprint Backlog'!G31</f>
         <v>4</v>
       </c>
       <c r="I30" s="25"/>
@@ -5252,19 +5275,19 @@
     </row>
     <row r="31" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B31" s="29">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" s="28" t="str">
-        <f>'Sprint Backlog'!D31</f>
-        <v>Calificaciones</v>
+        <f>'Sprint Backlog'!D32</f>
+        <v>Reseñas</v>
       </c>
       <c r="D31" s="27">
-        <f>'Sprint Backlog'!F31</f>
+        <f>'Sprint Backlog'!F32</f>
         <v>1</v>
       </c>
-      <c r="E31" s="82"/>
+      <c r="E31" s="26"/>
       <c r="F31" s="39" t="str">
-        <f>'Sprint Backlog'!E31</f>
+        <f>'Sprint Backlog'!E32</f>
         <v>Sin iniciar</v>
       </c>
       <c r="G31" s="25">
@@ -5272,7 +5295,7 @@
         <v>4</v>
       </c>
       <c r="H31" s="33">
-        <f>'Sprint Backlog'!G31</f>
+        <f>'Sprint Backlog'!G32</f>
         <v>4</v>
       </c>
       <c r="I31" s="25"/>
@@ -5284,28 +5307,27 @@
     </row>
     <row r="32" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B32" s="29">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32" s="28" t="str">
-        <f>'Sprint Backlog'!D32</f>
-        <v>Reseñas</v>
+        <f>'Sprint Backlog'!D33</f>
+        <v>Visualizar pedidos</v>
       </c>
       <c r="D32" s="27">
-        <f>'Sprint Backlog'!F32</f>
-        <v>1</v>
+        <f>'Sprint Backlog'!F33</f>
+        <v>2</v>
       </c>
       <c r="E32" s="26"/>
       <c r="F32" s="39" t="str">
-        <f>'Sprint Backlog'!E32</f>
+        <f>'Sprint Backlog'!E33</f>
         <v>Sin iniciar</v>
       </c>
       <c r="G32" s="25">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H32" s="33">
-        <f>'Sprint Backlog'!G32</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I32" s="25"/>
       <c r="J32" s="25"/>
@@ -5316,19 +5338,19 @@
     </row>
     <row r="33" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B33" s="29">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C33" s="28" t="str">
-        <f>'Sprint Backlog'!D33</f>
-        <v>Visualizar pedidos</v>
+        <f>'Sprint Backlog'!D34</f>
+        <v>Estado pedido</v>
       </c>
       <c r="D33" s="27">
-        <f>'Sprint Backlog'!F33</f>
+        <f>'Sprint Backlog'!F34</f>
         <v>2</v>
       </c>
       <c r="E33" s="26"/>
       <c r="F33" s="39" t="str">
-        <f>'Sprint Backlog'!E33</f>
+        <f>'Sprint Backlog'!E34</f>
         <v>Sin iniciar</v>
       </c>
       <c r="G33" s="25">
@@ -5336,7 +5358,8 @@
         <v>8</v>
       </c>
       <c r="H33" s="33">
-        <v>5</v>
+        <f>'Sprint Backlog'!G34</f>
+        <v>3</v>
       </c>
       <c r="I33" s="25"/>
       <c r="J33" s="25"/>
@@ -5347,19 +5370,19 @@
     </row>
     <row r="34" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B34" s="29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34" s="28" t="str">
-        <f>'Sprint Backlog'!D34</f>
-        <v>Estado pedido</v>
+        <f>'Sprint Backlog'!D35</f>
+        <v>Reporte oferente</v>
       </c>
       <c r="D34" s="27">
-        <f>'Sprint Backlog'!F34</f>
+        <f>'Sprint Backlog'!F35</f>
         <v>2</v>
       </c>
       <c r="E34" s="26"/>
       <c r="F34" s="39" t="str">
-        <f>'Sprint Backlog'!E34</f>
+        <f>'Sprint Backlog'!E35</f>
         <v>Sin iniciar</v>
       </c>
       <c r="G34" s="25">
@@ -5367,8 +5390,7 @@
         <v>8</v>
       </c>
       <c r="H34" s="33">
-        <f>'Sprint Backlog'!G34</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I34" s="25"/>
       <c r="J34" s="25"/>
@@ -5377,458 +5399,427 @@
       <c r="M34" s="25"/>
       <c r="N34" s="27"/>
     </row>
-    <row r="35" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B35" s="29">
-        <v>28</v>
-      </c>
-      <c r="C35" s="28" t="str">
-        <f>'Sprint Backlog'!D35</f>
-        <v>Reporte oferente</v>
-      </c>
-      <c r="D35" s="27">
-        <f>'Sprint Backlog'!F35</f>
-        <v>2</v>
-      </c>
-      <c r="E35" s="26"/>
-      <c r="F35" s="39" t="str">
-        <f>'Sprint Backlog'!E35</f>
-        <v>Sin iniciar</v>
-      </c>
-      <c r="G35" s="25">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H35" s="33">
-        <v>5</v>
-      </c>
-      <c r="I35" s="25"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="27"/>
-    </row>
-    <row r="38" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C38" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="42">
+        <f>SUM(D8:D34)</f>
+        <v>46</v>
+      </c>
+    </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C39" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="D39" s="42">
-        <f>SUM(D8:D35)</f>
+      <c r="C39" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="D39" s="44">
+        <f>D38*4</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C40" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" s="46">
+        <f>D39/3</f>
+        <v>61.333333333333336</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C42" s="81" t="s">
+        <v>182</v>
+      </c>
+      <c r="D42" s="79" t="s">
+        <v>181</v>
+      </c>
+      <c r="E42" s="80"/>
+    </row>
+    <row r="43" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C43" s="82"/>
+      <c r="D43" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43" s="59" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C44" s="52">
+        <v>43902</v>
+      </c>
+      <c r="D44" s="48">
         <v>48</v>
       </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C40" s="43" t="s">
-        <v>177</v>
-      </c>
-      <c r="D40" s="44">
-        <f>D39*4</f>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="D41" s="46">
-        <f>D40/3</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C43" s="74" t="s">
-        <v>182</v>
-      </c>
-      <c r="D43" s="72" t="s">
-        <v>181</v>
-      </c>
-      <c r="E43" s="73"/>
-    </row>
-    <row r="44" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="75"/>
-      <c r="D44" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="E44" s="59" t="s">
-        <v>180</v>
+      <c r="E44" s="49">
+        <v>48</v>
+      </c>
+      <c r="G44" s="57">
+        <f>+E44/35</f>
+        <v>1.3714285714285714</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C45" s="52">
-        <v>43902</v>
-      </c>
-      <c r="D45" s="48">
+      <c r="C45" s="53">
+        <v>43903</v>
+      </c>
+      <c r="D45" s="50">
         <v>48</v>
       </c>
-      <c r="E45" s="49">
-        <v>48</v>
-      </c>
-      <c r="G45" s="57">
-        <f>+E45/35</f>
-        <v>1.3714285714285714</v>
+      <c r="E45" s="55">
+        <f t="shared" ref="E45:E79" si="1">+E44-$G$44</f>
+        <v>46.628571428571426</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C46" s="53">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="D46" s="50">
         <v>48</v>
       </c>
       <c r="E46" s="55">
-        <f t="shared" ref="E46:E80" si="1">+E45-$G$45</f>
-        <v>46.628571428571426</v>
+        <f t="shared" si="1"/>
+        <v>45.257142857142853</v>
       </c>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C47" s="53">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="D47" s="50">
         <v>48</v>
       </c>
       <c r="E47" s="55">
         <f t="shared" si="1"/>
-        <v>45.257142857142853</v>
+        <v>43.885714285714279</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C48" s="53">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="D48" s="50">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E48" s="55">
         <f t="shared" si="1"/>
-        <v>43.885714285714279</v>
+        <v>42.514285714285705</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="53">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="D49" s="50">
-        <v>46</v>
+        <f>D48-1</f>
+        <v>45</v>
       </c>
       <c r="E49" s="55">
         <f t="shared" si="1"/>
-        <v>42.514285714285705</v>
+        <v>41.142857142857132</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C50" s="53">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="D50" s="50">
-        <f>D49-1</f>
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E50" s="55">
         <f t="shared" si="1"/>
-        <v>41.142857142857132</v>
+        <v>39.771428571428558</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" s="53">
-        <v>43908</v>
-      </c>
-      <c r="D51" s="50">
-        <v>42</v>
-      </c>
+        <v>43909</v>
+      </c>
+      <c r="D51" s="50"/>
       <c r="E51" s="55">
         <f t="shared" si="1"/>
-        <v>39.771428571428558</v>
+        <v>38.399999999999984</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C52" s="53">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="D52" s="50"/>
       <c r="E52" s="55">
         <f t="shared" si="1"/>
-        <v>38.399999999999984</v>
+        <v>37.028571428571411</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" s="53">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="D53" s="50"/>
       <c r="E53" s="55">
         <f t="shared" si="1"/>
-        <v>37.028571428571411</v>
+        <v>35.657142857142837</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C54" s="53">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="D54" s="50"/>
       <c r="E54" s="55">
         <f t="shared" si="1"/>
-        <v>35.657142857142837</v>
+        <v>34.285714285714263</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" s="53">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="D55" s="50"/>
       <c r="E55" s="55">
         <f t="shared" si="1"/>
-        <v>34.285714285714263</v>
+        <v>32.91428571428569</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C56" s="53">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="D56" s="50"/>
       <c r="E56" s="55">
         <f t="shared" si="1"/>
-        <v>32.91428571428569</v>
+        <v>31.54285714285712</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" s="53">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="D57" s="50"/>
       <c r="E57" s="55">
         <f t="shared" si="1"/>
-        <v>31.54285714285712</v>
+        <v>30.17142857142855</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C58" s="53">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D58" s="50"/>
       <c r="E58" s="55">
         <f t="shared" si="1"/>
-        <v>30.17142857142855</v>
+        <v>28.799999999999979</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C59" s="53">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="D59" s="50"/>
       <c r="E59" s="55">
         <f t="shared" si="1"/>
-        <v>28.799999999999979</v>
+        <v>27.428571428571409</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C60" s="53">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="D60" s="50"/>
       <c r="E60" s="55">
         <f t="shared" si="1"/>
-        <v>27.428571428571409</v>
+        <v>26.057142857142839</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C61" s="53">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="D61" s="50"/>
       <c r="E61" s="55">
         <f t="shared" si="1"/>
-        <v>26.057142857142839</v>
+        <v>24.685714285714269</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C62" s="53">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="D62" s="50"/>
       <c r="E62" s="55">
         <f t="shared" si="1"/>
-        <v>24.685714285714269</v>
+        <v>23.314285714285699</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C63" s="53">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="D63" s="50"/>
       <c r="E63" s="55">
         <f t="shared" si="1"/>
-        <v>23.314285714285699</v>
+        <v>21.942857142857129</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C64" s="53">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="D64" s="50"/>
       <c r="E64" s="55">
         <f t="shared" si="1"/>
-        <v>21.942857142857129</v>
+        <v>20.571428571428559</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C65" s="53">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="D65" s="50"/>
       <c r="E65" s="55">
         <f t="shared" si="1"/>
-        <v>20.571428571428559</v>
+        <v>19.199999999999989</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C66" s="53">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="D66" s="50"/>
       <c r="E66" s="55">
         <f t="shared" si="1"/>
-        <v>19.199999999999989</v>
+        <v>17.828571428571419</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C67" s="53">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="D67" s="50"/>
       <c r="E67" s="55">
         <f t="shared" si="1"/>
-        <v>17.828571428571419</v>
+        <v>16.457142857142848</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C68" s="53">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="D68" s="50"/>
       <c r="E68" s="55">
         <f t="shared" si="1"/>
-        <v>16.457142857142848</v>
+        <v>15.085714285714277</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C69" s="53">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="D69" s="50"/>
       <c r="E69" s="55">
         <f t="shared" si="1"/>
-        <v>15.085714285714277</v>
+        <v>13.714285714285705</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C70" s="53">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="D70" s="50"/>
       <c r="E70" s="55">
         <f t="shared" si="1"/>
-        <v>13.714285714285705</v>
+        <v>12.342857142857133</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C71" s="53">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="D71" s="50"/>
       <c r="E71" s="55">
         <f t="shared" si="1"/>
-        <v>12.342857142857133</v>
+        <v>10.971428571428561</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C72" s="53">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="D72" s="50"/>
       <c r="E72" s="55">
         <f t="shared" si="1"/>
-        <v>10.971428571428561</v>
+        <v>9.599999999999989</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C73" s="53">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="D73" s="50"/>
       <c r="E73" s="55">
         <f t="shared" si="1"/>
-        <v>9.599999999999989</v>
+        <v>8.2285714285714171</v>
       </c>
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C74" s="53">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="D74" s="50"/>
       <c r="E74" s="55">
         <f t="shared" si="1"/>
-        <v>8.2285714285714171</v>
+        <v>6.8571428571428452</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C75" s="53">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="D75" s="50"/>
       <c r="E75" s="55">
         <f t="shared" si="1"/>
-        <v>6.8571428571428452</v>
+        <v>5.4857142857142733</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C76" s="53">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="D76" s="50"/>
       <c r="E76" s="55">
         <f t="shared" si="1"/>
-        <v>5.4857142857142733</v>
+        <v>4.1142857142857014</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C77" s="53">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="D77" s="50"/>
       <c r="E77" s="55">
         <f t="shared" si="1"/>
-        <v>4.1142857142857014</v>
+        <v>2.74285714285713</v>
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C78" s="53">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="D78" s="50"/>
       <c r="E78" s="55">
         <f t="shared" si="1"/>
-        <v>2.74285714285713</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C79" s="53">
-        <v>43936</v>
-      </c>
-      <c r="D79" s="50"/>
-      <c r="E79" s="55">
-        <f t="shared" si="1"/>
         <v>1.3714285714285586</v>
       </c>
     </row>
-    <row r="80" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C80" s="54">
+    <row r="79" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="54">
         <v>43937</v>
       </c>
-      <c r="D80" s="51"/>
-      <c r="E80" s="56">
+      <c r="D79" s="51"/>
+      <c r="E79" s="56">
         <f t="shared" si="1"/>
         <v>-1.2878587085651816E-14</v>
       </c>
@@ -5836,12 +5827,12 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C3:C5"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="C42:C43"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8:E34">
       <formula1>$E$3:$E$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -5881,7 +5872,40 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>C8:N35</xm:sqref>
+          <xm:sqref>C8:N23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="7" id="{A8FCFD8B-9CFE-4C1A-89AD-EBEF1CEB3799}">
+            <xm:f>'Sprint Backlog'!$E25:$E52="En progreso"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="8" tint="0.39994506668294322"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="8" id="{F0253A1F-87C1-4E9A-ACD7-8F2FADEDFEB8}">
+            <xm:f>'Sprint Backlog'!$E25:$E52="Sin iniciar"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="expression" priority="9" id="{242C9D62-F9C3-44DC-8535-CA3D06670066}">
+            <xm:f>'Sprint Backlog'!$E25:$E52="Finalizado"</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF92D050"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>C24:N34</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
